--- a/Makslip-2081-1st/Markslip-(10 NM).xlsx
+++ b/Makslip-2081-1st/Markslip-(10 NM).xlsx
@@ -949,7 +949,7 @@
     <t>नम्बर चढाइसकेपछि फाइल सेभ गरी यो लिङ्कमा थिच्नुस । यसपछि यही फाइल अपलोड गर्नुहोस् ।</t>
   </si>
   <si>
-    <t>https://bit.ly/3SrTnrm</t>
+    <t>https://bit.ly/4dncgUa</t>
   </si>
 </sst>
 </file>
@@ -1093,44 +1093,42 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Oval 1">
+        <xdr:cNvPr id="3" name="Rectangle 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1695450" y="16033750"/>
-          <a:ext cx="863600" cy="768350"/>
+          <a:off x="6350" y="16770350"/>
+          <a:ext cx="717550" cy="222250"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent5"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1142,7 +1140,11 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Upload</a:t>
           </a:r>
         </a:p>
@@ -1443,7 +1445,7 @@
   <dimension ref="A1:BG89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
